--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.042</v>
+        <v>0.076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.336</v>
+        <v>0.477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.383</v>
+        <v>0.631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.347</v>
+        <v>0.497</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.061</v>
+        <v>0.09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>8.840999999999999</v>
+        <v>6.704</v>
       </c>
       <c r="E5" t="n">
-        <v>10.005</v>
+        <v>7.111</v>
       </c>
       <c r="F5" t="n">
-        <v>8.73</v>
+        <v>6.695</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.534</v>
+        <v>0.595</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.529</v>
+        <v>0.584</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5019</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.893</v>
+        <v>2.866</v>
       </c>
       <c r="E7" t="n">
-        <v>5.606</v>
+        <v>2.973</v>
       </c>
       <c r="F7" t="n">
-        <v>4.973</v>
+        <v>2.839</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>9.263</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>11.151</v>
+        <v>11.541</v>
       </c>
       <c r="F8" t="n">
-        <v>9.516999999999999</v>
+        <v>9.792</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.884</v>
+        <v>2.272</v>
       </c>
       <c r="E9" t="n">
-        <v>1.939</v>
+        <v>2.327</v>
       </c>
       <c r="F9" t="n">
-        <v>1.876</v>
+        <v>2.267</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>2.295</v>
+        <v>2.081</v>
       </c>
       <c r="E10" t="n">
-        <v>2.661</v>
+        <v>2.136</v>
       </c>
       <c r="F10" t="n">
-        <v>2.249</v>
+        <v>2.056</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>9.103999999999999</v>
+        <v>8.461</v>
       </c>
       <c r="E11" t="n">
-        <v>10.127</v>
+        <v>8.866</v>
       </c>
       <c r="F11" t="n">
-        <v>9.117000000000001</v>
+        <v>8.484</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>3.968</v>
+        <v>5.886</v>
       </c>
       <c r="E12" t="n">
-        <v>4.155</v>
+        <v>6.307</v>
       </c>
       <c r="F12" t="n">
-        <v>4.014</v>
+        <v>5.75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>3.749</v>
+        <v>5.182</v>
       </c>
       <c r="E13" t="n">
-        <v>3.969</v>
+        <v>5.984</v>
       </c>
       <c r="F13" t="n">
-        <v>3.79</v>
+        <v>5.275</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>5.596</v>
+        <v>4.135</v>
       </c>
       <c r="E14" t="n">
-        <v>6.351</v>
+        <v>4.615</v>
       </c>
       <c r="F14" t="n">
-        <v>5.439</v>
+        <v>4.272</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>15.973</v>
+        <v>11.784</v>
       </c>
       <c r="E15" t="n">
-        <v>20.016</v>
+        <v>14.413</v>
       </c>
       <c r="F15" t="n">
-        <v>16.944</v>
+        <v>12.299</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>12.663</v>
+        <v>10.029</v>
       </c>
       <c r="E16" t="n">
-        <v>14.416</v>
+        <v>10.195</v>
       </c>
       <c r="F16" t="n">
-        <v>12.461</v>
+        <v>9.997</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>9.726000000000001</v>
+        <v>6.547</v>
       </c>
       <c r="E17" t="n">
-        <v>12.326</v>
+        <v>8.288</v>
       </c>
       <c r="F17" t="n">
-        <v>10.488</v>
+        <v>6.923</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>7.037</v>
+        <v>9.061999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>7.628</v>
+        <v>9.287000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>7.123</v>
+        <v>9.055999999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1.888</v>
+        <v>1.879</v>
       </c>
       <c r="E19" t="n">
-        <v>2.005</v>
+        <v>1.931</v>
       </c>
       <c r="F19" t="n">
-        <v>1.905</v>
+        <v>1.89</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>2.721</v>
+        <v>1.853</v>
       </c>
       <c r="E20" t="n">
-        <v>3.482</v>
+        <v>2.042</v>
       </c>
       <c r="F20" t="n">
-        <v>2.825</v>
+        <v>1.918</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>7.836</v>
+        <v>8.590999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>8.101000000000001</v>
+        <v>10.492</v>
       </c>
       <c r="F21" t="n">
-        <v>7.696</v>
+        <v>8.976000000000001</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.045</v>
+        <v>0.058</v>
       </c>
       <c r="E22" t="n">
-        <v>0.047</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.045</v>
+        <v>0.063</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="E23" t="n">
-        <v>0.343</v>
+        <v>0.442</v>
       </c>
       <c r="F23" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2702</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.053</v>
+        <v>0.081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>9.962</v>
+        <v>8.096</v>
       </c>
       <c r="E25" t="n">
-        <v>12.121</v>
+        <v>8.250999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>10.242</v>
+        <v>8.086</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.484</v>
+        <v>0.418</v>
       </c>
       <c r="E26" t="n">
-        <v>0.528</v>
+        <v>0.488</v>
       </c>
       <c r="F26" t="n">
-        <v>0.481</v>
+        <v>0.423</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3059</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>5.888</v>
+        <v>4.285</v>
       </c>
       <c r="E27" t="n">
-        <v>6.68</v>
+        <v>4.733</v>
       </c>
       <c r="F27" t="n">
-        <v>6.046</v>
+        <v>4.396</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3724</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>3.375</v>
+        <v>3.939</v>
       </c>
       <c r="E28" t="n">
-        <v>3.856</v>
+        <v>4.097</v>
       </c>
       <c r="F28" t="n">
-        <v>3.459</v>
+        <v>3.983</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.328</v>
+        <v>0.368</v>
       </c>
       <c r="E29" t="n">
-        <v>0.419</v>
+        <v>1.492</v>
       </c>
       <c r="F29" t="n">
-        <v>0.349</v>
+        <v>0.603</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2737</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="30">
@@ -1330,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>0.011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.931</v>
+        <v>1.184</v>
       </c>
       <c r="E31" t="n">
-        <v>0.957</v>
+        <v>1.317</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3668</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>1.309</v>
+        <v>1.807</v>
       </c>
       <c r="E32" t="n">
-        <v>1.408</v>
+        <v>1.907</v>
       </c>
       <c r="F32" t="n">
-        <v>1.328</v>
+        <v>1.746</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>2.654</v>
+        <v>3.375</v>
       </c>
       <c r="E33" t="n">
-        <v>2.85</v>
+        <v>3.628</v>
       </c>
       <c r="F33" t="n">
-        <v>2.697</v>
+        <v>3.395</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>2.127</v>
+        <v>1.586</v>
       </c>
       <c r="E34" t="n">
-        <v>2.925</v>
+        <v>1.776</v>
       </c>
       <c r="F34" t="n">
-        <v>2.263</v>
+        <v>1.603</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>7.583</v>
+        <v>8.105</v>
       </c>
       <c r="E35" t="n">
-        <v>7.754</v>
+        <v>8.253</v>
       </c>
       <c r="F35" t="n">
-        <v>7.482</v>
+        <v>8.08</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>3.356</v>
+        <v>1.891</v>
       </c>
       <c r="E36" t="n">
-        <v>4.358</v>
+        <v>2.059</v>
       </c>
       <c r="F36" t="n">
-        <v>3.514</v>
+        <v>1.852</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>5.575</v>
+        <v>4.343</v>
       </c>
       <c r="E37" t="n">
-        <v>6.267</v>
+        <v>4.942</v>
       </c>
       <c r="F37" t="n">
-        <v>5.486</v>
+        <v>4.382</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>3.262</v>
+        <v>4.465</v>
       </c>
       <c r="E38" t="n">
-        <v>3.489</v>
+        <v>4.682</v>
       </c>
       <c r="F38" t="n">
-        <v>3.311</v>
+        <v>4.479</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>2.263</v>
+        <v>2.372</v>
       </c>
       <c r="E39" t="n">
-        <v>2.983</v>
+        <v>2.413</v>
       </c>
       <c r="F39" t="n">
-        <v>2.396</v>
+        <v>2.368</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>3.767</v>
+        <v>2.129</v>
       </c>
       <c r="E40" t="n">
-        <v>4.221</v>
+        <v>2.266</v>
       </c>
       <c r="F40" t="n">
-        <v>3.762</v>
+        <v>2.134</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.449</v>
+        <v>3.186</v>
       </c>
       <c r="E41" t="n">
-        <v>2.51</v>
+        <v>3.405</v>
       </c>
       <c r="F41" t="n">
-        <v>2.452</v>
+        <v>3.206</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3619</v>
+        <v>3612</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.056</v>
+        <v>0.046</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.477</v>
+        <v>0.344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631</v>
+        <v>0.389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.497</v>
+        <v>0.355</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.064</v>
+        <v>0.051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>6.704</v>
+        <v>4.764</v>
       </c>
       <c r="E5" t="n">
-        <v>7.111</v>
+        <v>7.18</v>
       </c>
       <c r="F5" t="n">
-        <v>6.695</v>
+        <v>5.225</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.595</v>
+        <v>0.473</v>
       </c>
       <c r="E6" t="n">
-        <v>0.635</v>
+        <v>0.509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.584</v>
+        <v>0.484</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4704</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.866</v>
+        <v>2.093</v>
       </c>
       <c r="E7" t="n">
-        <v>2.973</v>
+        <v>2.191</v>
       </c>
       <c r="F7" t="n">
-        <v>2.839</v>
+        <v>2.115</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>9.423999999999999</v>
+        <v>6.275</v>
       </c>
       <c r="E8" t="n">
-        <v>11.541</v>
+        <v>6.648</v>
       </c>
       <c r="F8" t="n">
-        <v>9.792</v>
+        <v>6.347</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>2.272</v>
+        <v>3.855</v>
       </c>
       <c r="E9" t="n">
-        <v>2.327</v>
+        <v>3.939</v>
       </c>
       <c r="F9" t="n">
-        <v>2.267</v>
+        <v>3.859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5453</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>2.081</v>
+        <v>4.005</v>
       </c>
       <c r="E10" t="n">
-        <v>2.136</v>
+        <v>4.046</v>
       </c>
       <c r="F10" t="n">
-        <v>2.056</v>
+        <v>3.983</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2786</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="11">
@@ -760,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>8.461</v>
+        <v>6.763</v>
       </c>
       <c r="E11" t="n">
-        <v>8.866</v>
+        <v>7.447</v>
       </c>
       <c r="F11" t="n">
-        <v>8.484</v>
+        <v>6.781</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17129</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="12">
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>5.886</v>
+        <v>3.819</v>
       </c>
       <c r="E12" t="n">
-        <v>6.307</v>
+        <v>3.86</v>
       </c>
       <c r="F12" t="n">
-        <v>5.75</v>
+        <v>3.784</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>5.182</v>
+        <v>3.573</v>
       </c>
       <c r="E13" t="n">
-        <v>5.984</v>
+        <v>3.843</v>
       </c>
       <c r="F13" t="n">
-        <v>5.275</v>
+        <v>3.522</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>4.135</v>
+        <v>2.851</v>
       </c>
       <c r="E14" t="n">
-        <v>4.615</v>
+        <v>2.958</v>
       </c>
       <c r="F14" t="n">
-        <v>4.272</v>
+        <v>2.858</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>11.784</v>
+        <v>8.618</v>
       </c>
       <c r="E15" t="n">
-        <v>14.413</v>
+        <v>9.237</v>
       </c>
       <c r="F15" t="n">
-        <v>12.299</v>
+        <v>8.612</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>10.029</v>
+        <v>8.484</v>
       </c>
       <c r="E16" t="n">
-        <v>10.195</v>
+        <v>9.004</v>
       </c>
       <c r="F16" t="n">
-        <v>9.997</v>
+        <v>8.491</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>6.547</v>
+        <v>4.329</v>
       </c>
       <c r="E17" t="n">
-        <v>8.288</v>
+        <v>4.649</v>
       </c>
       <c r="F17" t="n">
-        <v>6.923</v>
+        <v>4.335</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>9.061999999999999</v>
+        <v>6.468</v>
       </c>
       <c r="E18" t="n">
-        <v>9.287000000000001</v>
+        <v>7.074</v>
       </c>
       <c r="F18" t="n">
-        <v>9.055999999999999</v>
+        <v>6.612</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1.879</v>
+        <v>4.01</v>
       </c>
       <c r="E19" t="n">
-        <v>1.931</v>
+        <v>4.032</v>
       </c>
       <c r="F19" t="n">
-        <v>1.89</v>
+        <v>3.958</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5453</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="20">
@@ -1030,19 +1030,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.853</v>
+        <v>4.311</v>
       </c>
       <c r="E20" t="n">
-        <v>2.042</v>
+        <v>4.557</v>
       </c>
       <c r="F20" t="n">
-        <v>1.918</v>
+        <v>4.301</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2786</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="21">
@@ -1060,19 +1060,19 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>8.590999999999999</v>
+        <v>6.957</v>
       </c>
       <c r="E21" t="n">
-        <v>10.492</v>
+        <v>7.808</v>
       </c>
       <c r="F21" t="n">
-        <v>8.976000000000001</v>
+        <v>7.014</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>17129</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="22">
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.058</v>
+        <v>0.049</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="F22" t="n">
-        <v>0.063</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>0.39</v>
+        <v>0.313</v>
       </c>
       <c r="E23" t="n">
-        <v>0.442</v>
+        <v>0.347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4</v>
+        <v>0.322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2695</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="E24" t="n">
-        <v>0.081</v>
+        <v>0.044</v>
       </c>
       <c r="F24" t="n">
-        <v>0.056</v>
+        <v>0.043</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -1180,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>8.096</v>
+        <v>6.056</v>
       </c>
       <c r="E25" t="n">
-        <v>8.250999999999999</v>
+        <v>6.72</v>
       </c>
       <c r="F25" t="n">
-        <v>8.086</v>
+        <v>6.198</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.418</v>
+        <v>0.333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.488</v>
+        <v>0.36</v>
       </c>
       <c r="F26" t="n">
-        <v>0.423</v>
+        <v>0.34</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2933</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>4.285</v>
+        <v>3.309</v>
       </c>
       <c r="E27" t="n">
-        <v>4.733</v>
+        <v>3.405</v>
       </c>
       <c r="F27" t="n">
-        <v>4.396</v>
+        <v>3.334</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3738</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="28">
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>3.939</v>
+        <v>3.126</v>
       </c>
       <c r="E28" t="n">
-        <v>4.097</v>
+        <v>3.528</v>
       </c>
       <c r="F28" t="n">
-        <v>3.983</v>
+        <v>3.209</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.368</v>
+        <v>0.24</v>
       </c>
       <c r="E29" t="n">
-        <v>1.492</v>
+        <v>0.263</v>
       </c>
       <c r="F29" t="n">
-        <v>0.603</v>
+        <v>0.245</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2730</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="30">
@@ -1333,7 +1333,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="F30" t="n">
         <v>0.008999999999999999</v>
@@ -1360,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>1.184</v>
+        <v>1.125</v>
       </c>
       <c r="E31" t="n">
-        <v>1.317</v>
+        <v>1.155</v>
       </c>
       <c r="F31" t="n">
-        <v>1.21</v>
+        <v>1.119</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>1.807</v>
+        <v>1.264</v>
       </c>
       <c r="E32" t="n">
-        <v>1.907</v>
+        <v>1.298</v>
       </c>
       <c r="F32" t="n">
-        <v>1.746</v>
+        <v>1.252</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>3.375</v>
+        <v>2.339</v>
       </c>
       <c r="E33" t="n">
-        <v>3.628</v>
+        <v>2.633</v>
       </c>
       <c r="F33" t="n">
-        <v>3.395</v>
+        <v>2.363</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>1.586</v>
+        <v>1.311</v>
       </c>
       <c r="E34" t="n">
-        <v>1.776</v>
+        <v>1.373</v>
       </c>
       <c r="F34" t="n">
-        <v>1.603</v>
+        <v>1.319</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>8.105</v>
+        <v>6.312</v>
       </c>
       <c r="E35" t="n">
-        <v>8.253</v>
+        <v>6.44</v>
       </c>
       <c r="F35" t="n">
-        <v>8.08</v>
+        <v>6.275</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>1.891</v>
+        <v>1.247</v>
       </c>
       <c r="E36" t="n">
-        <v>2.059</v>
+        <v>1.309</v>
       </c>
       <c r="F36" t="n">
-        <v>1.852</v>
+        <v>1.246</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>4.343</v>
+        <v>2.939</v>
       </c>
       <c r="E37" t="n">
-        <v>4.942</v>
+        <v>3.006</v>
       </c>
       <c r="F37" t="n">
-        <v>4.382</v>
+        <v>2.942</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>4.465</v>
+        <v>3.369</v>
       </c>
       <c r="E38" t="n">
-        <v>4.682</v>
+        <v>5.713</v>
       </c>
       <c r="F38" t="n">
-        <v>4.479</v>
+        <v>3.905</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>2.372</v>
+        <v>1.929</v>
       </c>
       <c r="E39" t="n">
-        <v>2.413</v>
+        <v>2.269</v>
       </c>
       <c r="F39" t="n">
-        <v>2.368</v>
+        <v>2.027</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>2.129</v>
+        <v>2.354</v>
       </c>
       <c r="E40" t="n">
-        <v>2.266</v>
+        <v>2.413</v>
       </c>
       <c r="F40" t="n">
-        <v>2.134</v>
+        <v>2.366</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.186</v>
+        <v>2.377</v>
       </c>
       <c r="E41" t="n">
-        <v>3.405</v>
+        <v>2.405</v>
       </c>
       <c r="F41" t="n">
-        <v>3.206</v>
+        <v>2.376</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.039</v>
+        <v>0.232</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="F2" t="n">
-        <v>0.046</v>
+        <v>0.242</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>364</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.344</v>
+        <v>0.339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2702</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>4.764</v>
+        <v>4.733</v>
       </c>
       <c r="E5" t="n">
-        <v>7.18</v>
+        <v>5.825</v>
       </c>
       <c r="F5" t="n">
-        <v>5.225</v>
+        <v>4.911</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12754</v>
+        <v>54660</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="E6" t="n">
-        <v>0.509</v>
+        <v>0.51</v>
       </c>
       <c r="F6" t="n">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5005</v>
+        <v>20970</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.093</v>
+        <v>2.051</v>
       </c>
       <c r="E7" t="n">
-        <v>2.191</v>
+        <v>2.726</v>
       </c>
       <c r="F7" t="n">
-        <v>2.115</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6489</v>
+        <v>27810</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>6.275</v>
+        <v>7.511</v>
       </c>
       <c r="E8" t="n">
-        <v>6.648</v>
+        <v>9.036</v>
       </c>
       <c r="F8" t="n">
-        <v>6.347</v>
+        <v>7.487</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>3.855</v>
+        <v>0.31</v>
       </c>
       <c r="E9" t="n">
-        <v>3.939</v>
+        <v>0.373</v>
       </c>
       <c r="F9" t="n">
-        <v>3.859</v>
+        <v>0.326</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>11648</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>4.005</v>
+        <v>0.011</v>
       </c>
       <c r="E10" t="n">
-        <v>4.046</v>
+        <v>0.023</v>
       </c>
       <c r="F10" t="n">
-        <v>3.983</v>
+        <v>0.014</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>6.763</v>
+        <v>3.12</v>
       </c>
       <c r="E11" t="n">
-        <v>7.447</v>
+        <v>3.504</v>
       </c>
       <c r="F11" t="n">
-        <v>6.781</v>
+        <v>3.175</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11648</v>
+        <v>50130</v>
       </c>
     </row>
     <row r="12">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>3.819</v>
+        <v>4.403</v>
       </c>
       <c r="E12" t="n">
-        <v>3.86</v>
+        <v>4.714</v>
       </c>
       <c r="F12" t="n">
-        <v>3.784</v>
+        <v>4.437</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="13">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3.573</v>
+        <v>3.601</v>
       </c>
       <c r="E13" t="n">
-        <v>3.843</v>
+        <v>3.734</v>
       </c>
       <c r="F13" t="n">
-        <v>3.522</v>
+        <v>3.586</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>2.851</v>
+        <v>2.955</v>
       </c>
       <c r="E14" t="n">
-        <v>2.958</v>
+        <v>3.455</v>
       </c>
       <c r="F14" t="n">
-        <v>2.858</v>
+        <v>3.033</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="15">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>8.618</v>
+        <v>8.647</v>
       </c>
       <c r="E15" t="n">
-        <v>9.237</v>
+        <v>10.569</v>
       </c>
       <c r="F15" t="n">
-        <v>8.612</v>
+        <v>8.976000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>8.484</v>
+        <v>8.661</v>
       </c>
       <c r="E16" t="n">
-        <v>9.004</v>
+        <v>9.084</v>
       </c>
       <c r="F16" t="n">
-        <v>8.491</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>4.329</v>
+        <v>5.243</v>
       </c>
       <c r="E17" t="n">
-        <v>4.649</v>
+        <v>6.299</v>
       </c>
       <c r="F17" t="n">
-        <v>4.335</v>
+        <v>5.413</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>6.468</v>
+        <v>7.165</v>
       </c>
       <c r="E18" t="n">
-        <v>7.074</v>
+        <v>7.568</v>
       </c>
       <c r="F18" t="n">
-        <v>6.612</v>
+        <v>7.181</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>4.01</v>
+        <v>3.462</v>
       </c>
       <c r="E19" t="n">
-        <v>4.032</v>
+        <v>3.684</v>
       </c>
       <c r="F19" t="n">
-        <v>3.958</v>
+        <v>3.458</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="20">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>4.311</v>
+        <v>4.628</v>
       </c>
       <c r="E20" t="n">
-        <v>4.557</v>
+        <v>5.024</v>
       </c>
       <c r="F20" t="n">
-        <v>4.301</v>
+        <v>4.477</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="21">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>6.957</v>
+        <v>6.46</v>
       </c>
       <c r="E21" t="n">
-        <v>7.808</v>
+        <v>7.396</v>
       </c>
       <c r="F21" t="n">
-        <v>7.014</v>
+        <v>6.336</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>11648</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="22">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.049</v>
+        <v>0.202</v>
       </c>
       <c r="E22" t="n">
-        <v>0.055</v>
+        <v>0.245</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>0.212</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>364</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="23">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313</v>
+        <v>0.305</v>
       </c>
       <c r="E23" t="n">
-        <v>0.347</v>
+        <v>0.352</v>
       </c>
       <c r="F23" t="n">
-        <v>0.322</v>
+        <v>0.304</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2688</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="24">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="E24" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.044</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.043</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>56</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>6.056</v>
+        <v>5.805</v>
       </c>
       <c r="E25" t="n">
-        <v>6.72</v>
+        <v>6.028</v>
       </c>
       <c r="F25" t="n">
-        <v>6.198</v>
+        <v>5.81</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="26">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.333</v>
+        <v>0.322</v>
       </c>
       <c r="E26" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="F26" t="n">
-        <v>0.34</v>
+        <v>0.332</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3080</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="27">
@@ -1237,22 +1237,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>3.309</v>
+        <v>3.329</v>
       </c>
       <c r="E27" t="n">
-        <v>3.405</v>
+        <v>3.879</v>
       </c>
       <c r="F27" t="n">
-        <v>3.334</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3717</v>
+        <v>15870</v>
       </c>
     </row>
     <row r="28">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3.126</v>
+        <v>3.148</v>
       </c>
       <c r="E28" t="n">
-        <v>3.528</v>
+        <v>3.752</v>
       </c>
       <c r="F28" t="n">
-        <v>3.209</v>
+        <v>3.221</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="29">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24</v>
+        <v>0.286</v>
       </c>
       <c r="E29" t="n">
-        <v>0.263</v>
+        <v>0.329</v>
       </c>
       <c r="F29" t="n">
-        <v>0.245</v>
+        <v>0.293</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2695</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="30">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>1.125</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>1.155</v>
+        <v>1.891</v>
       </c>
       <c r="F31" t="n">
-        <v>1.119</v>
+        <v>1.097</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3661</v>
+        <v>15690</v>
       </c>
     </row>
     <row r="32">
@@ -1387,22 +1387,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>1.264</v>
+        <v>1.064</v>
       </c>
       <c r="E32" t="n">
-        <v>1.298</v>
+        <v>1.148</v>
       </c>
       <c r="F32" t="n">
-        <v>1.252</v>
+        <v>1.076</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="33">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>2.339</v>
+        <v>2.131</v>
       </c>
       <c r="E33" t="n">
-        <v>2.633</v>
+        <v>2.248</v>
       </c>
       <c r="F33" t="n">
-        <v>2.363</v>
+        <v>2.149</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="34">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>1.311</v>
+        <v>1.302</v>
       </c>
       <c r="E34" t="n">
-        <v>1.373</v>
+        <v>1.449</v>
       </c>
       <c r="F34" t="n">
-        <v>1.319</v>
+        <v>1.305</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="35">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>6.312</v>
+        <v>5.965</v>
       </c>
       <c r="E35" t="n">
-        <v>6.44</v>
+        <v>6.419</v>
       </c>
       <c r="F35" t="n">
-        <v>6.275</v>
+        <v>6.032</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="36">
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>1.247</v>
+        <v>1.195</v>
       </c>
       <c r="E36" t="n">
-        <v>1.309</v>
+        <v>1.471</v>
       </c>
       <c r="F36" t="n">
-        <v>1.246</v>
+        <v>1.241</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="37">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>2.939</v>
+        <v>3.361</v>
       </c>
       <c r="E37" t="n">
-        <v>3.006</v>
+        <v>4.51</v>
       </c>
       <c r="F37" t="n">
-        <v>2.942</v>
+        <v>3.449</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="38">
@@ -1567,22 +1567,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>3.369</v>
+        <v>3.43</v>
       </c>
       <c r="E38" t="n">
-        <v>5.713</v>
+        <v>4.111</v>
       </c>
       <c r="F38" t="n">
-        <v>3.905</v>
+        <v>3.525</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="39">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>1.929</v>
+        <v>2.266</v>
       </c>
       <c r="E39" t="n">
-        <v>2.269</v>
+        <v>3.249</v>
       </c>
       <c r="F39" t="n">
-        <v>2.027</v>
+        <v>2.311</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="40">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>2.354</v>
+        <v>1.962</v>
       </c>
       <c r="E40" t="n">
-        <v>2.413</v>
+        <v>2.38</v>
       </c>
       <c r="F40" t="n">
-        <v>2.366</v>
+        <v>2.056</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="41">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>2.377</v>
+        <v>3.185</v>
       </c>
       <c r="E41" t="n">
-        <v>2.405</v>
+        <v>3.347</v>
       </c>
       <c r="F41" t="n">
-        <v>2.376</v>
+        <v>3.168</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3612</v>
+        <v>15480</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.232</v>
+        <v>0.188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.242</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11640</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.339</v>
+        <v>0.369</v>
       </c>
       <c r="E3" t="n">
-        <v>0.39</v>
+        <v>0.418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.352</v>
+        <v>0.371</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.053</v>
+        <v>0.057</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>4.733</v>
+        <v>4.814</v>
       </c>
       <c r="E5" t="n">
-        <v>5.825</v>
+        <v>5.558</v>
       </c>
       <c r="F5" t="n">
-        <v>4.911</v>
+        <v>4.903</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.471</v>
+        <v>0.458</v>
       </c>
       <c r="E6" t="n">
-        <v>0.51</v>
+        <v>0.493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.48</v>
+        <v>0.464</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>20970</v>
+        <v>21180</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.051</v>
+        <v>2.048</v>
       </c>
       <c r="E7" t="n">
-        <v>2.726</v>
+        <v>2.122</v>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.083</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>7.511</v>
+        <v>7.438</v>
       </c>
       <c r="E8" t="n">
-        <v>9.036</v>
+        <v>8.055</v>
       </c>
       <c r="F8" t="n">
-        <v>7.487</v>
+        <v>7.29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31</v>
+        <v>0.329</v>
       </c>
       <c r="E9" t="n">
-        <v>0.373</v>
+        <v>0.531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.326</v>
+        <v>0.359</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.011</v>
+        <v>0.171</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.014</v>
+        <v>0.176</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>3.12</v>
+        <v>3.767</v>
       </c>
       <c r="E11" t="n">
-        <v>3.504</v>
+        <v>4.83</v>
       </c>
       <c r="F11" t="n">
-        <v>3.175</v>
+        <v>3.762</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>4.403</v>
+        <v>4.454</v>
       </c>
       <c r="E12" t="n">
-        <v>4.714</v>
+        <v>5.198</v>
       </c>
       <c r="F12" t="n">
-        <v>4.437</v>
+        <v>4.554</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3.601</v>
+        <v>3.954</v>
       </c>
       <c r="E13" t="n">
-        <v>3.734</v>
+        <v>5.112</v>
       </c>
       <c r="F13" t="n">
-        <v>3.586</v>
+        <v>4.227</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>2.955</v>
+        <v>4.264</v>
       </c>
       <c r="E14" t="n">
-        <v>3.455</v>
+        <v>4.882</v>
       </c>
       <c r="F14" t="n">
-        <v>3.033</v>
+        <v>4.299</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>8.647</v>
+        <v>10.218</v>
       </c>
       <c r="E15" t="n">
-        <v>10.569</v>
+        <v>12.517</v>
       </c>
       <c r="F15" t="n">
-        <v>8.976000000000001</v>
+        <v>10.253</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>8.661</v>
+        <v>8.862</v>
       </c>
       <c r="E16" t="n">
-        <v>9.084</v>
+        <v>9.651</v>
       </c>
       <c r="F16" t="n">
-        <v>8.460000000000001</v>
+        <v>8.785</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>5.243</v>
+        <v>6.172</v>
       </c>
       <c r="E17" t="n">
-        <v>6.299</v>
+        <v>8.116</v>
       </c>
       <c r="F17" t="n">
-        <v>5.413</v>
+        <v>6.194</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>7.165</v>
+        <v>7.564</v>
       </c>
       <c r="E18" t="n">
-        <v>7.568</v>
+        <v>8.516</v>
       </c>
       <c r="F18" t="n">
-        <v>7.181</v>
+        <v>7.662</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>3.462</v>
+        <v>3.508</v>
       </c>
       <c r="E19" t="n">
-        <v>3.684</v>
+        <v>3.731</v>
       </c>
       <c r="F19" t="n">
-        <v>3.458</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>4.628</v>
+        <v>3.624</v>
       </c>
       <c r="E20" t="n">
-        <v>5.024</v>
+        <v>3.83</v>
       </c>
       <c r="F20" t="n">
-        <v>4.477</v>
+        <v>3.633</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>6.46</v>
+        <v>6.546</v>
       </c>
       <c r="E21" t="n">
-        <v>7.396</v>
+        <v>7.024</v>
       </c>
       <c r="F21" t="n">
-        <v>6.336</v>
+        <v>6.556</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202</v>
+        <v>0.198</v>
       </c>
       <c r="E22" t="n">
-        <v>0.245</v>
+        <v>0.234</v>
       </c>
       <c r="F22" t="n">
-        <v>0.212</v>
+        <v>0.205</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.305</v>
+        <v>0.353</v>
       </c>
       <c r="E23" t="n">
-        <v>0.352</v>
+        <v>0.407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.304</v>
+        <v>0.353</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>11520</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="E24" t="n">
-        <v>0.049</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.044</v>
+        <v>0.056</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>5.805</v>
+        <v>6.058</v>
       </c>
       <c r="E25" t="n">
-        <v>6.028</v>
+        <v>6.859</v>
       </c>
       <c r="F25" t="n">
-        <v>5.81</v>
+        <v>6.157</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322</v>
+        <v>0.407</v>
       </c>
       <c r="E26" t="n">
-        <v>0.363</v>
+        <v>0.452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.332</v>
+        <v>0.41</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12660</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>3.329</v>
+        <v>3.41</v>
       </c>
       <c r="E27" t="n">
-        <v>3.879</v>
+        <v>4.075</v>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.512</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15870</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="28">
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3.148</v>
+        <v>3.159</v>
       </c>
       <c r="E28" t="n">
-        <v>3.752</v>
+        <v>3.54</v>
       </c>
       <c r="F28" t="n">
-        <v>3.221</v>
+        <v>3.209</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0.286</v>
       </c>
       <c r="E29" t="n">
-        <v>0.329</v>
+        <v>0.344</v>
       </c>
       <c r="F29" t="n">
-        <v>0.293</v>
+        <v>0.302</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11550</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="E30" t="n">
-        <v>0.016</v>
+        <v>0.327</v>
       </c>
       <c r="F30" t="n">
-        <v>0.011</v>
+        <v>0.281</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>60</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="31">
@@ -1360,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="E31" t="n">
-        <v>1.891</v>
+        <v>1.007</v>
       </c>
       <c r="F31" t="n">
-        <v>1.097</v>
+        <v>0.952</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>1.064</v>
+        <v>1.112</v>
       </c>
       <c r="E32" t="n">
-        <v>1.148</v>
+        <v>1.287</v>
       </c>
       <c r="F32" t="n">
-        <v>1.076</v>
+        <v>1.135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>2.131</v>
+        <v>2.661</v>
       </c>
       <c r="E33" t="n">
-        <v>2.248</v>
+        <v>2.804</v>
       </c>
       <c r="F33" t="n">
-        <v>2.149</v>
+        <v>2.565</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>1.302</v>
+        <v>1.431</v>
       </c>
       <c r="E34" t="n">
-        <v>1.449</v>
+        <v>1.738</v>
       </c>
       <c r="F34" t="n">
-        <v>1.305</v>
+        <v>1.471</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>5.965</v>
+        <v>6.024</v>
       </c>
       <c r="E35" t="n">
-        <v>6.419</v>
+        <v>6.391</v>
       </c>
       <c r="F35" t="n">
-        <v>6.032</v>
+        <v>6.078</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>1.195</v>
+        <v>1.196</v>
       </c>
       <c r="E36" t="n">
-        <v>1.471</v>
+        <v>1.269</v>
       </c>
       <c r="F36" t="n">
-        <v>1.241</v>
+        <v>1.211</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>3.361</v>
+        <v>2.961</v>
       </c>
       <c r="E37" t="n">
-        <v>4.51</v>
+        <v>3.127</v>
       </c>
       <c r="F37" t="n">
-        <v>3.449</v>
+        <v>2.988</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>3.43</v>
+        <v>3.321</v>
       </c>
       <c r="E38" t="n">
-        <v>4.111</v>
+        <v>3.886</v>
       </c>
       <c r="F38" t="n">
-        <v>3.525</v>
+        <v>3.398</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>2.266</v>
+        <v>1.909</v>
       </c>
       <c r="E39" t="n">
-        <v>3.249</v>
+        <v>1.992</v>
       </c>
       <c r="F39" t="n">
-        <v>2.311</v>
+        <v>1.925</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>1.962</v>
+        <v>2.341</v>
       </c>
       <c r="E40" t="n">
-        <v>2.38</v>
+        <v>3.228</v>
       </c>
       <c r="F40" t="n">
-        <v>2.056</v>
+        <v>2.575</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>3.185</v>
+        <v>2.427</v>
       </c>
       <c r="E41" t="n">
-        <v>3.347</v>
+        <v>3.398</v>
       </c>
       <c r="F41" t="n">
-        <v>3.168</v>
+        <v>2.547</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -490,13 +490,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.259</v>
+        <v>0.245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.196</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.369</v>
+        <v>0.325</v>
       </c>
       <c r="E3" t="n">
-        <v>0.418</v>
+        <v>0.404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.371</v>
+        <v>0.342</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.091</v>
+        <v>0.078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>4.814</v>
+        <v>4.66</v>
       </c>
       <c r="E5" t="n">
-        <v>5.558</v>
+        <v>5.6</v>
       </c>
       <c r="F5" t="n">
-        <v>4.903</v>
+        <v>4.848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="E6" t="n">
-        <v>0.493</v>
+        <v>0.484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.464</v>
+        <v>0.469</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21180</v>
+        <v>20580</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.048</v>
+        <v>2.035</v>
       </c>
       <c r="E7" t="n">
-        <v>2.122</v>
+        <v>2.17</v>
       </c>
       <c r="F7" t="n">
-        <v>2.083</v>
+        <v>2.051</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>7.438</v>
+        <v>7.498</v>
       </c>
       <c r="E8" t="n">
-        <v>8.055</v>
+        <v>8.432</v>
       </c>
       <c r="F8" t="n">
-        <v>7.29</v>
+        <v>7.588</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.329</v>
+        <v>0.305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.531</v>
+        <v>0.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.359</v>
+        <v>0.322</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.171</v>
+        <v>0.164</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>0.218</v>
       </c>
       <c r="F10" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>3.767</v>
+        <v>3.251</v>
       </c>
       <c r="E11" t="n">
-        <v>4.83</v>
+        <v>3.791</v>
       </c>
       <c r="F11" t="n">
-        <v>3.762</v>
+        <v>3.333</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>4.454</v>
+        <v>4.501</v>
       </c>
       <c r="E12" t="n">
-        <v>5.198</v>
+        <v>5.355</v>
       </c>
       <c r="F12" t="n">
-        <v>4.554</v>
+        <v>4.688</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3.954</v>
+        <v>3.475</v>
       </c>
       <c r="E13" t="n">
-        <v>5.112</v>
+        <v>3.578</v>
       </c>
       <c r="F13" t="n">
-        <v>4.227</v>
+        <v>3.42</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>4.264</v>
+        <v>2.936</v>
       </c>
       <c r="E14" t="n">
-        <v>4.882</v>
+        <v>3.939</v>
       </c>
       <c r="F14" t="n">
-        <v>4.299</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>10.218</v>
+        <v>7.977</v>
       </c>
       <c r="E15" t="n">
-        <v>12.517</v>
+        <v>8.279</v>
       </c>
       <c r="F15" t="n">
-        <v>10.253</v>
+        <v>8.000999999999999</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>8.862</v>
+        <v>7.632</v>
       </c>
       <c r="E16" t="n">
-        <v>9.651</v>
+        <v>9.657</v>
       </c>
       <c r="F16" t="n">
-        <v>8.785</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>6.172</v>
+        <v>4.662</v>
       </c>
       <c r="E17" t="n">
-        <v>8.116</v>
+        <v>4.953</v>
       </c>
       <c r="F17" t="n">
-        <v>6.194</v>
+        <v>4.488</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>7.564</v>
+        <v>7.933</v>
       </c>
       <c r="E18" t="n">
-        <v>8.516</v>
+        <v>8.132</v>
       </c>
       <c r="F18" t="n">
-        <v>7.662</v>
+        <v>7.895</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>3.508</v>
+        <v>3.59</v>
       </c>
       <c r="E19" t="n">
-        <v>3.731</v>
+        <v>3.723</v>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.548</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>3.624</v>
+        <v>3.683</v>
       </c>
       <c r="E20" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="F20" t="n">
-        <v>3.633</v>
+        <v>3.707</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>6.546</v>
+        <v>6.506</v>
       </c>
       <c r="E21" t="n">
-        <v>7.024</v>
+        <v>7.025</v>
       </c>
       <c r="F21" t="n">
-        <v>6.556</v>
+        <v>6.463</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.198</v>
+        <v>0.265</v>
       </c>
       <c r="E22" t="n">
-        <v>0.234</v>
+        <v>0.505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.205</v>
+        <v>0.296</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.353</v>
+        <v>0.299</v>
       </c>
       <c r="E23" t="n">
-        <v>0.407</v>
+        <v>0.508</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353</v>
+        <v>0.325</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>11550</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="24">
@@ -1153,10 +1153,10 @@
         <v>0.051</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.056</v>
+        <v>0.051</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>6.058</v>
+        <v>5.776</v>
       </c>
       <c r="E25" t="n">
-        <v>6.859</v>
+        <v>6.012</v>
       </c>
       <c r="F25" t="n">
-        <v>6.157</v>
+        <v>5.796</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.407</v>
+        <v>0.303</v>
       </c>
       <c r="E26" t="n">
-        <v>0.452</v>
+        <v>0.406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.41</v>
+        <v>0.318</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>13020</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>3.41</v>
+        <v>3.262</v>
       </c>
       <c r="E27" t="n">
-        <v>4.075</v>
+        <v>3.655</v>
       </c>
       <c r="F27" t="n">
-        <v>3.512</v>
+        <v>3.308</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15840</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="28">
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3.159</v>
+        <v>3.191</v>
       </c>
       <c r="E28" t="n">
-        <v>3.54</v>
+        <v>3.837</v>
       </c>
       <c r="F28" t="n">
-        <v>3.209</v>
+        <v>3.312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.286</v>
+        <v>0.28</v>
       </c>
       <c r="E29" t="n">
-        <v>0.344</v>
+        <v>0.322</v>
       </c>
       <c r="F29" t="n">
-        <v>0.302</v>
+        <v>0.284</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11580</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="E30" t="n">
-        <v>0.327</v>
+        <v>0.338</v>
       </c>
       <c r="F30" t="n">
-        <v>0.281</v>
+        <v>0.297</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11580</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="31">
@@ -1360,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.945</v>
+        <v>1.023</v>
       </c>
       <c r="E31" t="n">
-        <v>1.007</v>
+        <v>1.179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.952</v>
+        <v>1.034</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>1.112</v>
+        <v>1.14</v>
       </c>
       <c r="E32" t="n">
-        <v>1.287</v>
+        <v>1.744</v>
       </c>
       <c r="F32" t="n">
-        <v>1.135</v>
+        <v>1.294</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>2.661</v>
+        <v>2.426</v>
       </c>
       <c r="E33" t="n">
-        <v>2.804</v>
+        <v>2.709</v>
       </c>
       <c r="F33" t="n">
-        <v>2.565</v>
+        <v>2.423</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>1.431</v>
+        <v>1.072</v>
       </c>
       <c r="E34" t="n">
-        <v>1.738</v>
+        <v>1.75</v>
       </c>
       <c r="F34" t="n">
-        <v>1.471</v>
+        <v>1.25</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>6.024</v>
+        <v>5.956</v>
       </c>
       <c r="E35" t="n">
-        <v>6.391</v>
+        <v>6.308</v>
       </c>
       <c r="F35" t="n">
-        <v>6.078</v>
+        <v>5.983</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>1.196</v>
+        <v>1.157</v>
       </c>
       <c r="E36" t="n">
-        <v>1.269</v>
+        <v>1.293</v>
       </c>
       <c r="F36" t="n">
-        <v>1.211</v>
+        <v>1.19</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>2.961</v>
+        <v>2.917</v>
       </c>
       <c r="E37" t="n">
-        <v>3.127</v>
+        <v>3.313</v>
       </c>
       <c r="F37" t="n">
-        <v>2.988</v>
+        <v>2.98</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>3.321</v>
+        <v>3.233</v>
       </c>
       <c r="E38" t="n">
-        <v>3.886</v>
+        <v>3.482</v>
       </c>
       <c r="F38" t="n">
-        <v>3.398</v>
+        <v>3.283</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>1.909</v>
+        <v>1.884</v>
       </c>
       <c r="E39" t="n">
-        <v>1.992</v>
+        <v>2.214</v>
       </c>
       <c r="F39" t="n">
-        <v>1.925</v>
+        <v>1.953</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>2.341</v>
+        <v>2.277</v>
       </c>
       <c r="E40" t="n">
-        <v>3.228</v>
+        <v>2.569</v>
       </c>
       <c r="F40" t="n">
-        <v>2.575</v>
+        <v>2.322</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>2.427</v>
+        <v>2.464</v>
       </c>
       <c r="E41" t="n">
-        <v>3.398</v>
+        <v>2.867</v>
       </c>
       <c r="F41" t="n">
-        <v>2.547</v>
+        <v>2.537</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_10000.xlsx
+++ b/exports/performance_run_10000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="E2" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.196</v>
+        <v>0.199</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11670</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.404</v>
+        <v>0.386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.078</v>
+        <v>0.065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>4.66</v>
+        <v>4.54</v>
       </c>
       <c r="E5" t="n">
-        <v>5.6</v>
+        <v>4.693</v>
       </c>
       <c r="F5" t="n">
-        <v>4.848</v>
+        <v>4.56</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="E6" t="n">
-        <v>0.484</v>
+        <v>0.584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.469</v>
+        <v>0.473</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>20580</v>
+        <v>20610</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.035</v>
+        <v>2.142</v>
       </c>
       <c r="E7" t="n">
-        <v>2.17</v>
+        <v>2.188</v>
       </c>
       <c r="F7" t="n">
-        <v>2.051</v>
+        <v>2.149</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>7.498</v>
+        <v>7.255</v>
       </c>
       <c r="E8" t="n">
-        <v>8.432</v>
+        <v>7.727</v>
       </c>
       <c r="F8" t="n">
-        <v>7.588</v>
+        <v>6.97</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
       <c r="E9" t="n">
-        <v>0.37</v>
+        <v>0.402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
       <c r="E10" t="n">
-        <v>0.218</v>
+        <v>0.188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>3.251</v>
+        <v>4.567</v>
       </c>
       <c r="E11" t="n">
-        <v>3.791</v>
+        <v>6.101</v>
       </c>
       <c r="F11" t="n">
-        <v>3.333</v>
+        <v>4.746</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>4.501</v>
+        <v>5.247</v>
       </c>
       <c r="E12" t="n">
-        <v>5.355</v>
+        <v>6.052</v>
       </c>
       <c r="F12" t="n">
-        <v>4.688</v>
+        <v>5.294</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>3.475</v>
+        <v>3.634</v>
       </c>
       <c r="E13" t="n">
-        <v>3.578</v>
+        <v>3.811</v>
       </c>
       <c r="F13" t="n">
-        <v>3.42</v>
+        <v>3.635</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>2.936</v>
+        <v>2.762</v>
       </c>
       <c r="E14" t="n">
-        <v>3.939</v>
+        <v>2.983</v>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>2.772</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>7.977</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>8.279</v>
+        <v>9.945</v>
       </c>
       <c r="F15" t="n">
-        <v>8.000999999999999</v>
+        <v>8.553000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>7.632</v>
+        <v>8.725</v>
       </c>
       <c r="E16" t="n">
-        <v>9.657</v>
+        <v>9.568</v>
       </c>
       <c r="F16" t="n">
-        <v>8.140000000000001</v>
+        <v>8.509</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>4.662</v>
+        <v>4.733</v>
       </c>
       <c r="E17" t="n">
-        <v>4.953</v>
+        <v>5.617</v>
       </c>
       <c r="F17" t="n">
-        <v>4.488</v>
+        <v>4.697</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>7.933</v>
+        <v>7.772</v>
       </c>
       <c r="E18" t="n">
-        <v>8.132</v>
+        <v>9.223000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>7.895</v>
+        <v>7.865</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>3.59</v>
+        <v>3.441</v>
       </c>
       <c r="E19" t="n">
-        <v>3.723</v>
+        <v>3.512</v>
       </c>
       <c r="F19" t="n">
-        <v>3.548</v>
+        <v>3.422</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>3.683</v>
+        <v>3.558</v>
       </c>
       <c r="E20" t="n">
-        <v>3.86</v>
+        <v>4.582</v>
       </c>
       <c r="F20" t="n">
-        <v>3.707</v>
+        <v>3.705</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>6.506</v>
+        <v>7.405</v>
       </c>
       <c r="E21" t="n">
-        <v>7.025</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>6.463</v>
+        <v>7.535</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.265</v>
+        <v>0.205</v>
       </c>
       <c r="E22" t="n">
-        <v>0.505</v>
+        <v>0.242</v>
       </c>
       <c r="F22" t="n">
-        <v>0.296</v>
+        <v>0.213</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.508</v>
+        <v>0.34</v>
       </c>
       <c r="F23" t="n">
-        <v>0.325</v>
+        <v>0.301</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>11520</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.051</v>
+        <v>0.042</v>
       </c>
       <c r="E24" t="n">
-        <v>0.081</v>
+        <v>0.045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.051</v>
+        <v>0.043</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>5.776</v>
+        <v>5.789</v>
       </c>
       <c r="E25" t="n">
-        <v>6.012</v>
+        <v>6.016</v>
       </c>
       <c r="F25" t="n">
-        <v>5.796</v>
+        <v>5.813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.303</v>
+        <v>0.427</v>
       </c>
       <c r="E26" t="n">
-        <v>0.406</v>
+        <v>0.546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.318</v>
+        <v>0.436</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12780</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>3.262</v>
+        <v>3.322</v>
       </c>
       <c r="E27" t="n">
-        <v>3.655</v>
+        <v>3.645</v>
       </c>
       <c r="F27" t="n">
-        <v>3.308</v>
+        <v>3.334</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15750</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3.191</v>
+        <v>2.922</v>
       </c>
       <c r="E28" t="n">
-        <v>3.837</v>
+        <v>3.031</v>
       </c>
       <c r="F28" t="n">
-        <v>3.312</v>
+        <v>2.935</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.28</v>
+        <v>0.274</v>
       </c>
       <c r="E29" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="F29" t="n">
-        <v>0.284</v>
+        <v>0.27</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11550</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29</v>
+        <v>0.346</v>
       </c>
       <c r="E30" t="n">
-        <v>0.338</v>
+        <v>0.388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.297</v>
+        <v>0.353</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11550</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>1.023</v>
+        <v>1.141</v>
       </c>
       <c r="E31" t="n">
-        <v>1.179</v>
+        <v>1.379</v>
       </c>
       <c r="F31" t="n">
-        <v>1.034</v>
+        <v>1.183</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15690</v>
+        <v>15720</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>1.14</v>
+        <v>1.119</v>
       </c>
       <c r="E32" t="n">
-        <v>1.744</v>
+        <v>1.324</v>
       </c>
       <c r="F32" t="n">
-        <v>1.294</v>
+        <v>1.179</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>2.426</v>
+        <v>2.067</v>
       </c>
       <c r="E33" t="n">
-        <v>2.709</v>
+        <v>2.212</v>
       </c>
       <c r="F33" t="n">
-        <v>2.423</v>
+        <v>2.099</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>1.072</v>
+        <v>1.084</v>
       </c>
       <c r="E34" t="n">
-        <v>1.75</v>
+        <v>1.257</v>
       </c>
       <c r="F34" t="n">
-        <v>1.25</v>
+        <v>1.109</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>5.956</v>
+        <v>5.884</v>
       </c>
       <c r="E35" t="n">
-        <v>6.308</v>
+        <v>6.267</v>
       </c>
       <c r="F35" t="n">
-        <v>5.983</v>
+        <v>5.911</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>1.157</v>
+        <v>1.451</v>
       </c>
       <c r="E36" t="n">
-        <v>1.293</v>
+        <v>1.755</v>
       </c>
       <c r="F36" t="n">
-        <v>1.19</v>
+        <v>1.457</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>2.917</v>
+        <v>2.896</v>
       </c>
       <c r="E37" t="n">
-        <v>3.313</v>
+        <v>3.071</v>
       </c>
       <c r="F37" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>3.233</v>
+        <v>3.007</v>
       </c>
       <c r="E38" t="n">
-        <v>3.482</v>
+        <v>3.189</v>
       </c>
       <c r="F38" t="n">
-        <v>3.283</v>
+        <v>3.028</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>1.884</v>
+        <v>1.862</v>
       </c>
       <c r="E39" t="n">
-        <v>2.214</v>
+        <v>2.024</v>
       </c>
       <c r="F39" t="n">
-        <v>1.953</v>
+        <v>1.886</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>2.277</v>
+        <v>2.486</v>
       </c>
       <c r="E40" t="n">
-        <v>2.569</v>
+        <v>4.036</v>
       </c>
       <c r="F40" t="n">
-        <v>2.322</v>
+        <v>2.758</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>2.464</v>
+        <v>3.129</v>
       </c>
       <c r="E41" t="n">
-        <v>2.867</v>
+        <v>3.619</v>
       </c>
       <c r="F41" t="n">
-        <v>2.537</v>
+        <v>3.144</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
     </row>
   </sheetData>
